--- a/Fantasy Football/2018/FTLN Add Drops.xlsx
+++ b/Fantasy Football/2018/FTLN Add Drops.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfrick\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfrick\Documents\GitHub\tfrick34.github.io\Fantasy Football\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Alie" sheetId="2" r:id="rId1"/>
     <sheet name="Annie" sheetId="3" r:id="rId2"/>
     <sheet name="Anthony" sheetId="4" r:id="rId3"/>
-    <sheet name="Tim" sheetId="1" r:id="rId4"/>
+    <sheet name="Colin" sheetId="5" r:id="rId4"/>
+    <sheet name="Devon" sheetId="6" r:id="rId5"/>
+    <sheet name="Jake" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
+    <sheet name="Tim" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="238">
   <si>
     <t>Kenny Golladay</t>
   </si>
@@ -300,13 +304,1893 @@
   </si>
   <si>
     <t>Ryan Succup</t>
+  </si>
+  <si>
+    <t>Marqise Lee</t>
+  </si>
+  <si>
+    <t>Keelan Cole</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Patrick Mahomes</t>
+  </si>
+  <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Austin Ekeler</t>
+  </si>
+  <si>
+    <t>DJ Moore</t>
+  </si>
+  <si>
+    <t>Tyler Lockett</t>
+  </si>
+  <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
+    <t>Jimmy Garoppolo</t>
+  </si>
+  <si>
+    <t>Browns D/ST</t>
+  </si>
+  <si>
+    <t>Eagles D/ST</t>
+  </si>
+  <si>
+    <t>Will Dissly</t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>Will Dissley</t>
+  </si>
+  <si>
+    <t>Blake Bortles</t>
+  </si>
+  <si>
+    <t>Ka'imi Fairbarin</t>
+  </si>
+  <si>
+    <t>Texans D/ST</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Doug Martin</t>
+  </si>
+  <si>
+    <t>Matt Brieda</t>
+  </si>
+  <si>
+    <t>Jerick McKinnon</t>
+  </si>
+  <si>
+    <t>Alfred Morris</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Jamaal Williams</t>
+  </si>
+  <si>
+    <t>Chris Boswell</t>
+  </si>
+  <si>
+    <t>Bears D/ST</t>
+  </si>
+  <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
+    <t>Jared Cook</t>
+  </si>
+  <si>
+    <t>Jason Myers</t>
+  </si>
+  <si>
+    <t>Rashaad Penny</t>
+  </si>
+  <si>
+    <t>Dex Bryant</t>
+  </si>
+  <si>
+    <t>Mike Wallace</t>
+  </si>
+  <si>
+    <t>C.J. Anderson</t>
+  </si>
+  <si>
+    <t>Jordan Wilkins</t>
+  </si>
+  <si>
+    <t>Marlon mack</t>
+  </si>
+  <si>
+    <t>Jordan Mathews</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>Isiah Crowell</t>
+  </si>
+  <si>
+    <t>Wed, Nov 14</t>
+  </si>
+  <si>
+    <r>
+      <t>Transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bengals D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Cin D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <t>BOOM Roster</t>
+  </si>
+  <si>
+    <t>Tue, Nov 13</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eagles D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Sat, Nov 10</t>
+  </si>
+  <si>
+    <t>Add/Drop</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eagles D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bills D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Buf D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Fri, Nov 9</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>LeSean McCoy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Buf RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peyton Barber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, TB RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Waiver Report</t>
+  </si>
+  <si>
+    <t>Wed, Nov 7</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marquez Valdes-Scantling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, GB WR from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isaiah Crowell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYJ RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>BOOM Declined Trade</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kenyan Drake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Mia RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chris Carson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Sea RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Doug Baldwin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Sea WR to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jack Doyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ind TE to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <t>Overall Rating:</t>
+  </si>
+  <si>
+    <t>RIDL Roster</t>
+  </si>
+  <si>
+    <t>RIDL Declined Trade</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peyton Barber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, TB RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Howard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Chi RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isaiah Crowell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYJ RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evan Engram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYG TE from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vance McDonald</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Pit TE to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bills D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Buf D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dolphins D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Mia D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Fri, Nov 2</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dolphins D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Mia D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Titans D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ten D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Trade Processed</t>
+  </si>
+  <si>
+    <r>
+      <t>FYC traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ezekiel Elliott</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Dal RB to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FYC traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Danny Amendola</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Mia WR to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Ingram II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO RB to FYC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Odell Beckham Jr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYG WR to FYC</t>
+    </r>
+  </si>
+  <si>
+    <t>FYC Roster</t>
+  </si>
+  <si>
+    <t>Wed, Oct 31</t>
+  </si>
+  <si>
+    <t>FYC Accepted Trade</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Titans D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ten D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cardinals D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ari D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Courtland Sutton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Den WR from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordy Nelson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Oak WR to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vance McDonald</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Pit TE from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin Watson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO TE to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Sun, Oct 28</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cardinals D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ari D/ST from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jets D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYJ D/ST to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Mon, Oct 22</t>
+  </si>
+  <si>
+    <t>Declined Trade</t>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Calvin Ridley</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Atl WR to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <t>Thu, Oct 18</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Greg Zuerlein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, LAR K from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Matt Bryant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Atl K to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benjamin Watson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO TE from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jared Cook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Oak TE to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed, Oct 17</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peyton Barber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, TB RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wendell Smallwood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Tue, Oct 16</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Leonard Fournette</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Jax RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Kittle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SF TE to Roln</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Josh Gordon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NE WR to Roln</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Roln traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Odell Beckham Jr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYG WR to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Roln traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Howard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Chi RB to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <t>Roln Roster</t>
+  </si>
+  <si>
+    <t>Fri, Oct 12</t>
+  </si>
+  <si>
+    <t>BOOM Accepted Trade</t>
+  </si>
+  <si>
+    <t>Wed, Oct 10</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wendell Smallwood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dez Bryant*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO WR to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Tue, Oct 9</t>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>James Conner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Pit RB to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Emmanuel Sanders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Den WR to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Russell Wilson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Sea QB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <t>Fri, Sep 28</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isaiah Crowell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYJ RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Matthews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi WR to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed, Sep 26</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chris Carson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Sea RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Wilkins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ind RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Tue, Sep 25</t>
+  </si>
+  <si>
+    <t>Trade Upheld (By LM)</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jaguars D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Jax D/ST to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.J. Yeldon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Jax RB to RIDL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jets D/ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NYJ D/ST to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIDL traded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kenyan Drake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Mia RB to BOOM</t>
+    </r>
+  </si>
+  <si>
+    <t>Sat, Sep 22</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Matthews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi WR from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marlon Mack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ind RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed, Sep 19</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jordan Wilkins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ind RB from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>C.J. Anderson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Car RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed, Sep 12</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.J. Yeldon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Jax RB from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mike Wallace*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Phi WR to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jared Cook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Oak TE from Waivers to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Austin Hooper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Atl TE to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Sat, Sep 8</t>
+  </si>
+  <si>
+    <r>
+      <t>BOOM added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dez Bryant*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO WR from Free Agency to Bench</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BOOM dropped </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rashaad Penny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Sea RB to Waivers</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed, Aug 29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +2198,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,16 +2263,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,6 +2336,2101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_add.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="0"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_drop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1066800"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1866900"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="3867150"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="5734050"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="7734300"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11201400"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="13068300"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="14935200"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="16802100"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="20669250"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="22536150"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_trade.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="24536400"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_tradeaccepted.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="28003500"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="31470600"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="33470850"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="35471100"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="37471350"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="39471600"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="41338500"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="43205400"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="45072300"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="47072550"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_trade.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="48939450"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_tradeaccepted.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="52273200"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="55606950"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="57473850"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="61074300"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="63074550"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_tradeaccepted.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="64941450"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_tradeaccepted.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="68008500"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="71075550"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="72942450"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="74942700"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="76809600"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_adddrop.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="78676500"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="http://g.espncdn.com/s/ffllm/14/images/icons/07/icon_traderejected.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="80543400"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1288,8 +5364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,6 +5708,2392 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>15.33</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>15.33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>6.33</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>6.33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>33.5</v>
+      </c>
+      <c r="E10">
+        <v>11.17</v>
+      </c>
+      <c r="F10">
+        <v>33.5</v>
+      </c>
+      <c r="G10">
+        <v>11.17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>13.5</v>
+      </c>
+      <c r="E12">
+        <v>3.8</v>
+      </c>
+      <c r="F12">
+        <v>13.5</v>
+      </c>
+      <c r="G12">
+        <v>3.8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>7.2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>22.5</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>22.5</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>106</v>
+      </c>
+      <c r="E16">
+        <v>15.14</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>34.5</v>
+      </c>
+      <c r="E17">
+        <v>4.93</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>106.5</v>
+      </c>
+      <c r="E18">
+        <v>11.83</v>
+      </c>
+      <c r="F18">
+        <v>54.5</v>
+      </c>
+      <c r="G18">
+        <v>10.9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F19">
+        <v>35.5</v>
+      </c>
+      <c r="G19">
+        <v>5.92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(C3 = 0, 0, D3/C3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="0">IF(C4 = 0, 0, D4/C4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D7" r:id="rId4" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D8" r:id="rId5" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20181109"/>
+    <hyperlink ref="D9" r:id="rId6" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D11" r:id="rId7" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D12" r:id="rId8" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D16" r:id="rId9" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D17" r:id="rId10" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D19" r:id="rId11" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D20" r:id="rId12" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D22" r:id="rId13" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D23" r:id="rId14" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D25" r:id="rId15" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D26" r:id="rId16" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D28" r:id="rId17" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D30" r:id="rId18" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D32" r:id="rId19" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D34" r:id="rId20" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=9"/>
+    <hyperlink ref="D35" r:id="rId21" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D38" r:id="rId22" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=9"/>
+    <hyperlink ref="D39" r:id="rId23" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D42" r:id="rId24" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D44" r:id="rId25" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D45" r:id="rId26" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20181031"/>
+    <hyperlink ref="D46" r:id="rId27" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D47" r:id="rId28" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20181031"/>
+    <hyperlink ref="D48" r:id="rId29" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D50" r:id="rId30" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D51" r:id="rId31" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D53" r:id="rId32" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D55" r:id="rId33" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D57" r:id="rId34" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D58" r:id="rId35" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20181017"/>
+    <hyperlink ref="D59" r:id="rId36" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D60" r:id="rId37" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D62" r:id="rId38" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D63" r:id="rId39" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=2"/>
+    <hyperlink ref="D66" r:id="rId40" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D67" r:id="rId41" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=2"/>
+    <hyperlink ref="D70" r:id="rId42" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D71" r:id="rId43" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20181010"/>
+    <hyperlink ref="D72" r:id="rId44" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D73" r:id="rId45" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D77" r:id="rId46" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D78" r:id="rId47" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20180928"/>
+    <hyperlink ref="D79" r:id="rId48" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D80" r:id="rId49" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20180926"/>
+    <hyperlink ref="D81" r:id="rId50" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D82" r:id="rId51" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D85" r:id="rId52" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D86" r:id="rId53" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+    <hyperlink ref="D89" r:id="rId54" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D91" r:id="rId55" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D93" r:id="rId56" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D94" r:id="rId57" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20180912"/>
+    <hyperlink ref="D95" r:id="rId58" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D96" r:id="rId59" display="http://games.espn.com/ffl/waiverreport?leagueId=1594050&amp;date=20180912"/>
+    <hyperlink ref="D97" r:id="rId60" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D99" r:id="rId61" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=3"/>
+    <hyperlink ref="D100" r:id="rId62" display="http://games.espn.com/ffl/clubhouse?leagueId=1594050&amp;teamId=1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId63"/>
+  <drawing r:id="rId64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K24"/>
   <sheetViews>
